--- a/biology/Médecine/Louis_Perrier_(médecin)/Louis_Perrier_(médecin).xlsx
+++ b/biology/Médecine/Louis_Perrier_(médecin)/Louis_Perrier_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Perrier_(m%C3%A9decin)</t>
+          <t>Louis_Perrier_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Eugène Perrier, né le 10 août 1835 à Domessargues (Gard)[1] et mort le 17 mai 1912 à Nîmes, est un médecin français. Son nom est associé à la source d'eau minérale Perrier[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Eugène Perrier, né le 10 août 1835 à Domessargues (Gard) et mort le 17 mai 1912 à Nîmes, est un médecin français. Son nom est associé à la source d'eau minérale Perrier.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Perrier_(m%C3%A9decin)</t>
+          <t>Louis_Perrier_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ayant soutenu sa thèse de médecine à Montpellier en 1862[3], il est surtout connu pour avoir créé en 1898 (après l'achat du domaine des Bouillens et de la source à Louis Rouvière) la « Société des eaux minérales, boissons et produits hygiéniques de Vergèze[4] » (dans le Gard, à 15 km de Nîmes) qui deviendra eau de Perrier.
-Alors premier adjoint d'Augustin Demians, il est amené à faire fonction de maire de Nîmes de janvier à mars 1871[5]. Il est aussi conseiller général du Gard pour le canton de Saint-Mamert de 1870 à 1886[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayant soutenu sa thèse de médecine à Montpellier en 1862, il est surtout connu pour avoir créé en 1898 (après l'achat du domaine des Bouillens et de la source à Louis Rouvière) la « Société des eaux minérales, boissons et produits hygiéniques de Vergèze » (dans le Gard, à 15 km de Nîmes) qui deviendra eau de Perrier.
+Alors premier adjoint d'Augustin Demians, il est amené à faire fonction de maire de Nîmes de janvier à mars 1871. Il est aussi conseiller général du Gard pour le canton de Saint-Mamert de 1870 à 1886.
 </t>
         </is>
       </c>
